--- a/2019-sqf-file-spec.xlsx
+++ b/2019-sqf-file-spec.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC4B62B-E8A9-114C-91A9-83CCFFC92423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE214B9-C827-884D-A53D-63A85AED4E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stop Report Index" sheetId="1" r:id="rId1"/>
+    <sheet name="Stop Report Index (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="224">
   <si>
     <t>STOP_FRISK_DATE</t>
   </si>
@@ -605,13 +606,103 @@
   </si>
   <si>
     <t>demographics</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Possible Use Cases</t>
+  </si>
+  <si>
+    <t>unique identifier for the individual being frisked</t>
+  </si>
+  <si>
+    <t>date of being frisked</t>
+  </si>
+  <si>
+    <t>military time of frisk</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month written in english</t>
+  </si>
+  <si>
+    <t>day of week</t>
+  </si>
+  <si>
+    <t>reasonable suspicion upon the officer initiated the stopping of the individual</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CPT, DT!, DT2, DT#, DTS, INS, LCD, LSA, LT, POF, POM, SDS, SGT, SSA</t>
+  </si>
+  <si>
+    <t>rank of officer</t>
+  </si>
+  <si>
+    <t>Based on Radio Run,  Based on Self Initiated, Based on C/W on Scene</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>rank of supervising officer</t>
+  </si>
+  <si>
+    <t>I (in), O (out), S (?)</t>
+  </si>
+  <si>
+    <t>inside or outside the building</t>
+  </si>
+  <si>
+    <t>Affirmative Tresspassing, Housing, PSB (?), Transit</t>
+  </si>
+  <si>
+    <t>description of jurisdiction</t>
+  </si>
+  <si>
+    <t>type of suspected crime</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>did officer explain why the suspect was stopped</t>
+  </si>
+  <si>
+    <t>sentiment analysis</t>
+  </si>
+  <si>
+    <t>shortened explanation of why the suspect was stopped</t>
+  </si>
+  <si>
+    <t>Admin, Discord, Health, Knife, Litter, Marijuana, Park, Transit, Urination, Other</t>
+  </si>
+  <si>
+    <t>description of arrest</t>
+  </si>
+  <si>
+    <t>STOP_ID_ANONY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +724,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +759,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -742,6 +875,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -754,10 +893,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1042,28 +1232,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72.5" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
@@ -1077,7 +1267,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -1085,7 +1275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1283,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1310,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1318,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1329,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1340,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1351,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1373,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1417,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1431,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +1439,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1257,8 +1447,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1268,7 +1458,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1279,8 +1469,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1290,8 +1480,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1301,7 +1491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -1309,8 +1499,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1320,7 +1510,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1518,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1338,12 +1528,12 @@
       <c r="C30" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1352,10 +1542,10 @@
       <c r="C31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1364,10 +1554,10 @@
       <c r="C32" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1376,10 +1566,10 @@
       <c r="C33" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1388,12 +1578,12 @@
       <c r="C34" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1402,10 +1592,10 @@
       <c r="C35" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1418,8 +1608,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1429,8 +1619,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1440,8 +1630,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1451,8 +1641,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1462,8 +1652,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1473,8 +1663,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1484,8 +1674,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1495,8 +1685,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1506,8 +1696,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1517,8 +1707,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1528,8 +1718,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1539,8 +1729,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1550,8 +1740,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1561,8 +1751,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1572,8 +1762,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1583,8 +1773,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1594,8 +1784,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1605,8 +1795,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1616,8 +1806,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1627,8 +1817,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -1638,8 +1828,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -1649,8 +1839,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1660,8 +1850,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -1671,8 +1861,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -1682,8 +1872,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1693,8 +1883,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -1704,8 +1894,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -1715,8 +1905,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -1726,8 +1916,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -1737,8 +1927,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -1748,7 +1938,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>61</v>
       </c>
@@ -1759,21 +1949,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="48">
       <c r="A68" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D68" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>63</v>
       </c>
@@ -1784,7 +1974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>64</v>
       </c>
@@ -1798,7 +1988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +1999,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>66</v>
       </c>
@@ -1820,7 +2010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>67</v>
       </c>
@@ -1831,7 +2021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
@@ -1842,7 +2032,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>69</v>
       </c>
@@ -1853,7 +2043,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>70</v>
       </c>
@@ -1864,21 +2054,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="48">
       <c r="A77" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D77" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>72</v>
       </c>
@@ -1886,7 +2076,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +2084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>74</v>
       </c>
@@ -1902,7 +2092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -1910,7 +2100,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>76</v>
       </c>
@@ -1918,7 +2108,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>77</v>
       </c>
@@ -1926,7 +2116,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
@@ -1934,7 +2124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>79</v>
       </c>
@@ -1942,7 +2132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>80</v>
       </c>
@@ -1950,7 +2140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>81</v>
       </c>
@@ -1966,4 +2156,877 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C75A25E-286D-D247-89B4-3CDFEF7DEFC2}">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.5" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32">
+      <c r="A2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="48">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32">
+      <c r="A12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="32">
+      <c r="A18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="32">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="32">
+      <c r="A24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="64">
+      <c r="A25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16">
+      <c r="A26" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="16">
+      <c r="A29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16">
+      <c r="A30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="16">
+      <c r="A31" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16">
+      <c r="A32" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="16">
+      <c r="A33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="16">
+      <c r="A34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="16">
+      <c r="A35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="16">
+      <c r="A36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="16">
+      <c r="A37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="16">
+      <c r="A38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="16">
+      <c r="A39" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" ht="16">
+      <c r="A40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" ht="16">
+      <c r="A41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" ht="16">
+      <c r="A42" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="16">
+      <c r="A43" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="16">
+      <c r="A44" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="16">
+      <c r="A45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" ht="16">
+      <c r="A46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="16">
+      <c r="A47" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" ht="16">
+      <c r="A48" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="16">
+      <c r="A49" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="16">
+      <c r="A50" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="16">
+      <c r="A51" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" ht="16">
+      <c r="A52" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" ht="16">
+      <c r="A53" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" ht="16">
+      <c r="A54" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" ht="16">
+      <c r="A55" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="16">
+      <c r="A56" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" ht="16">
+      <c r="A57" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" ht="16">
+      <c r="A58" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" ht="16">
+      <c r="A59" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" ht="16">
+      <c r="A60" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="16">
+      <c r="A61" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="16">
+      <c r="A62" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" ht="48">
+      <c r="A63" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16">
+      <c r="A64" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16">
+      <c r="A65" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16">
+      <c r="A66" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16">
+      <c r="A67" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16">
+      <c r="A68" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16">
+      <c r="A69" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16">
+      <c r="A71" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="48">
+      <c r="A72" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16">
+      <c r="A73" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" ht="16">
+      <c r="A74" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" ht="16">
+      <c r="A75" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+    </row>
+    <row r="76" spans="1:4" ht="16">
+      <c r="A76" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="1:4" ht="16">
+      <c r="A77" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:4" ht="16">
+      <c r="A78" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:4" ht="16">
+      <c r="A79" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:4" ht="16">
+      <c r="A80" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="1:4" ht="16">
+      <c r="A81" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" ht="16">
+      <c r="A82" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="70" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2019-sqf-file-spec.xlsx
+++ b/2019-sqf-file-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE214B9-C827-884D-A53D-63A85AED4E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208E3EE-2537-D349-A74A-F1F7512753E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C75A25E-286D-D247-89B4-3CDFEF7DEFC2}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/2019-sqf-file-spec.xlsx
+++ b/2019-sqf-file-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208E3EE-2537-D349-A74A-F1F7512753E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D74A383-E06B-294E-8392-571B43667165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="1440" windowWidth="28120" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stop Report Index" sheetId="1" r:id="rId1"/>
@@ -881,18 +881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -949,6 +937,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1528,7 @@
       <c r="C30" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="30" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       <c r="C31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
@@ -1554,7 +1554,7 @@
       <c r="C32" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
@@ -1566,7 +1566,7 @@
       <c r="C33" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
@@ -1578,7 +1578,7 @@
       <c r="C34" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="33" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="C35" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C75A25E-286D-D247-89B4-3CDFEF7DEFC2}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2174,856 +2174,856 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="48">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="16">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="32">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="16">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="16">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="32">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="64">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="16">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="16">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="16">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="16"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="16">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="16"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="16">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="16"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="16">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="16">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="16">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="16"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="16">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="16"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="16">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="16"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="16">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="16"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="16">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="16"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="16">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="16"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="16">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="16">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="16"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="16">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="16"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="16">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="16"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="16">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="16"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="16">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" s="16"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="16">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="16"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" ht="16">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="16"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" ht="16">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="16"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="16">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="16"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="16">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="16"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="16">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="16"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="16">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="16"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="16">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="16"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="16">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="16"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" ht="16">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="16"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" ht="16">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="16"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" ht="16">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="16"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" ht="16">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="16"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="16">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" ht="48">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="48">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" ht="16">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" ht="16">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="16">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="16">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="16">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" ht="16">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="16">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="16">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="16">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
